--- a/assets/docs/Template_Upload_Plan.xlsx
+++ b/assets/docs/Template_Upload_Plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\server\xampp\htdocs\hourxhour\docs\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\server\xampp\htdocs\hourxhour\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F873F7AC-C25C-4635-999D-BC7DE7020C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B73D6-A265-4441-A9D8-620DAEE06B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>HR</t>
   </si>
@@ -97,13 +97,67 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>00:00 - 01:00</t>
+  </si>
+  <si>
+    <t>01:00 - 02:00</t>
+  </si>
+  <si>
+    <t>02:00 - 03:00</t>
+  </si>
+  <si>
+    <t>03:00 - 04:00</t>
+  </si>
+  <si>
+    <t>04:00 - 05:00</t>
+  </si>
+  <si>
+    <t>05:00 - 06:00</t>
+  </si>
+  <si>
+    <t>23:00 - 00:00</t>
+  </si>
+  <si>
+    <t>15:00 - 16:00</t>
+  </si>
+  <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
+    <t>13:00 - 14:00</t>
+  </si>
+  <si>
+    <t>12:00 - 13:00</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>10:00 - 11:00</t>
+  </si>
+  <si>
+    <t>09:00 - 10:00</t>
+  </si>
+  <si>
+    <t>08:00 - 09:00</t>
+  </si>
+  <si>
+    <t>07:00 - 08:00</t>
+  </si>
+  <si>
+    <t>06:00 - 07:00</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +177,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -189,6 +249,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,27 +533,27 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="16.54296875" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" customWidth="1"/>
+    <col min="14" max="14" width="16.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="9" t="s">
@@ -511,7 +572,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -552,8 +613,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -578,8 +641,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -607,8 +672,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -633,8 +700,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -662,8 +731,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -688,8 +759,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -712,8 +785,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -736,8 +811,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -745,64 +822,116 @@
       <c r="F10" s="8"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H29" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
